--- a/grails-app/conf/reportTemplate/waibaoTemplate.xlsx
+++ b/grails-app/conf/reportTemplate/waibaoTemplate.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +80,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -477,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -613,6 +614,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -1145,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1166,18 +1171,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" thickBot="1">
       <c r="A2" s="19"/>
@@ -1228,7 +1233,7 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="47">
+      <c r="A4" s="48">
         <v>42737</v>
       </c>
       <c r="B4" s="18">
@@ -1247,7 +1252,7 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -1264,7 +1269,7 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18">
         <v>3</v>
       </c>
@@ -1281,7 +1286,7 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -1298,7 +1303,7 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="18">
         <v>5</v>
       </c>
@@ -1314,48 +1319,48 @@
       <c r="J8" s="28"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="39" customHeight="1">
-      <c r="A9" s="31">
+    <row r="9" spans="1:12">
+      <c r="A9" s="50"/>
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="39" customHeight="1">
+      <c r="A10" s="31">
         <f>A4</f>
         <v>42737</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="53">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="A11" s="54">
         <f>A4+1</f>
         <v>42738</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B11" s="18">
         <v>1</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="39"/>
-      <c r="B11" s="18">
-        <v>2</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
@@ -1363,16 +1368,16 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
@@ -1383,13 +1388,13 @@
       <c r="G12" s="33"/>
       <c r="H12" s="10"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
@@ -1406,7 +1411,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="40"/>
       <c r="B14" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
@@ -1414,39 +1419,33 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="10"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A15" s="23">
-        <f>A10</f>
-        <v>42738</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="25.2" customHeight="1">
-      <c r="A16" s="38">
-        <f>A10+1</f>
-        <v>42739</v>
-      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="40"/>
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="41"/>
       <c r="B16" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
@@ -1454,33 +1453,39 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="39"/>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="39"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A17" s="23">
+        <f>A11</f>
+        <v>42738</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="25.2" customHeight="1">
+      <c r="A18" s="39">
+        <f>A11+1</f>
+        <v>42739</v>
+      </c>
       <c r="B18" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
@@ -1488,16 +1493,16 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
@@ -1508,13 +1513,13 @@
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="40"/>
       <c r="B20" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
@@ -1522,39 +1527,33 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A21" s="23">
-        <f>A16</f>
-        <v>42739</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="38">
-        <f>A16+1</f>
-        <v>42740</v>
-      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="40"/>
+      <c r="B21" s="18">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="40"/>
       <c r="B22" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
@@ -1562,16 +1561,16 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="17"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
@@ -1579,33 +1578,39 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="39"/>
-      <c r="B24" s="18">
+      <c r="J23" s="36"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A24" s="23">
+        <f>A18</f>
+        <v>42739</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="A25" s="39">
+        <f>A18+1</f>
+        <v>42740</v>
+      </c>
       <c r="B25" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
@@ -1613,16 +1618,16 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="40"/>
       <c r="B26" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
@@ -1630,39 +1635,33 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A27" s="23">
-        <f>A22</f>
-        <v>42740</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="J26" s="34"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="40"/>
+      <c r="B27" s="18">
         <v>3</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="38">
-        <f>A22+1</f>
-        <v>42741</v>
-      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="40"/>
       <c r="B28" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
@@ -1670,16 +1669,16 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
@@ -1690,13 +1689,13 @@
       <c r="G29" s="33"/>
       <c r="H29" s="10"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="34"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
@@ -1704,33 +1703,39 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="39"/>
-      <c r="B31" s="18">
-        <v>4</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="40"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A31" s="23">
+        <f>A25</f>
+        <v>42740</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="39">
+        <f>A25+1</f>
+        <v>42741</v>
+      </c>
       <c r="B32" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
@@ -1738,39 +1743,33 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A33" s="23">
-        <f>A28</f>
-        <v>42741</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="J32" s="17"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="40"/>
+      <c r="B33" s="18">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="40"/>
+      <c r="B34" s="18">
         <v>3</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="38">
-        <f>A28+1</f>
-        <v>42742</v>
-      </c>
-      <c r="B34" s="18">
-        <v>1</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
@@ -1778,16 +1777,16 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="16"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
@@ -1798,13 +1797,13 @@
       <c r="G35" s="33"/>
       <c r="H35" s="10"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="34"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
@@ -1819,9 +1818,9 @@
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
@@ -1829,56 +1828,56 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="40"/>
-      <c r="B38" s="18">
-        <v>5</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A39" s="23">
-        <f>A34</f>
+      <c r="J37" s="36"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A38" s="23">
+        <f>A32</f>
+        <v>42741</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="A39" s="39">
+        <f>A32+1</f>
         <v>42742</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="38">
-        <f>A34+1</f>
-        <v>42743</v>
-      </c>
+      <c r="B39" s="18">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="40"/>
       <c r="B40" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
@@ -1886,16 +1885,16 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="16"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="34"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
@@ -1906,13 +1905,13 @@
       <c r="G41" s="33"/>
       <c r="H41" s="10"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="34"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
@@ -1927,9 +1926,9 @@
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="39"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
@@ -1944,9 +1943,9 @@
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="40"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
@@ -1963,49 +1962,177 @@
     </row>
     <row r="45" spans="1:12" ht="36" customHeight="1" thickBot="1">
       <c r="A45" s="23">
-        <f>A40</f>
-        <v>42743</v>
+        <f>A39</f>
+        <v>42742</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="15"/>
       <c r="L45" s="2"/>
     </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="A46" s="39">
+        <f>A39+1</f>
+        <v>42743</v>
+      </c>
+      <c r="B46" s="18">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="40"/>
+      <c r="B47" s="18">
+        <v>2</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="40"/>
+      <c r="B48" s="18">
+        <v>3</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="40"/>
+      <c r="B49" s="18">
+        <v>4</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="40"/>
+      <c r="B50" s="18">
+        <v>5</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="41"/>
+      <c r="B51" s="18">
+        <v>6</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A52" s="23">
+        <f>A46</f>
+        <v>42743</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="38"/>
+    </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="1">
-        <v>5</v>
+      <c r="A100" s="38">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="C38:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I14 I4:I8 I16:I20 I22:I26 I28:I32 I34:I38 I40:I44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I16 I4:I9 I18:I23 I25:I30 I32:I37 I39:I44 I46:I51">
       <formula1>"√,×,'-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/grails-app/conf/reportTemplate/waibaoTemplate.xlsx
+++ b/grails-app/conf/reportTemplate/waibaoTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="576" windowWidth="14820" windowHeight="8916" tabRatio="903"/>
+    <workbookView xWindow="7500" yWindow="570" windowWidth="14820" windowHeight="8910" tabRatio="903"/>
   </bookViews>
   <sheets>
     <sheet name="当周日报" sheetId="19" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,7 +85,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -142,12 +142,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
@@ -166,13 +160,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -195,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -210,30 +197,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -471,6 +434,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -478,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -499,10 +475,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -510,27 +486,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -538,15 +502,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -554,13 +518,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -570,110 +534,94 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1034,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1128,7 +1076,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1150,97 +1098,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.19921875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.19921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.09765625" style="29" customWidth="1"/>
-    <col min="11" max="12" width="6.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="25" customWidth="1"/>
+    <col min="11" max="12" width="6.75" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" thickBot="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="48">
+      <c r="A4" s="36">
         <v>42737</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="9"/>
@@ -1248,16 +1196,16 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="18">
+    <row r="5" spans="1:12">
+      <c r="A5" s="37"/>
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9"/>
@@ -1265,874 +1213,643 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="50"/>
-      <c r="B6" s="18">
+      <c r="A6" s="37"/>
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="50"/>
-      <c r="B7" s="18">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="28"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="50"/>
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="28"/>
+    <row r="8" spans="1:12" ht="39" customHeight="1">
+      <c r="A8" s="27">
+        <f>A4</f>
+        <v>42737</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="50"/>
-      <c r="B9" s="18">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="A9" s="41">
+        <f>A4+1</f>
+        <v>42738</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="39" customHeight="1">
-      <c r="A10" s="31">
-        <f>A4</f>
-        <v>42737</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="54">
-        <f>A4+1</f>
-        <v>42738</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="40"/>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="10"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="40"/>
-      <c r="B13" s="18">
+    <row r="13" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A13" s="20">
+        <f>A9</f>
+        <v>42738</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="40"/>
-      <c r="B14" s="18">
-        <v>4</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A14" s="47">
+        <f>A9+1</f>
+        <v>42739</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="40"/>
-      <c r="B15" s="18">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="41"/>
-      <c r="B16" s="18">
-        <v>6</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+    <row r="16" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A17" s="23">
-        <f>A11</f>
-        <v>42738</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="42"/>
+      <c r="B17" s="15">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A18" s="20">
+        <f>A14</f>
+        <v>42739</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="25.2" customHeight="1">
-      <c r="A18" s="39">
-        <f>A11+1</f>
-        <v>42739</v>
-      </c>
-      <c r="B18" s="18">
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="47">
+        <f>A14+1</f>
+        <v>42740</v>
+      </c>
+      <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="40"/>
-      <c r="B19" s="18">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="34"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="40"/>
-      <c r="B20" s="18">
-        <v>3</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="40"/>
-      <c r="B21" s="18">
-        <v>4</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="15">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="40"/>
-      <c r="B22" s="18">
-        <v>5</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="15">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="10"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="41"/>
-      <c r="B23" s="18">
-        <v>6</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A24" s="23">
-        <f>A18</f>
-        <v>42739</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="23" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A23" s="20">
+        <f>A19</f>
+        <v>42740</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="2"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="A24" s="47">
+        <f>A19+1</f>
+        <v>42741</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="39">
-        <f>A18+1</f>
-        <v>42740</v>
-      </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="15">
+        <v>2</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="17"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="40"/>
-      <c r="B26" s="18">
-        <v>2</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="34"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="40"/>
-      <c r="B27" s="18">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="15">
+        <v>4</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="40"/>
-      <c r="B28" s="18">
-        <v>4</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="40"/>
-      <c r="B29" s="18">
-        <v>5</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18" t="s">
+    <row r="28" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A28" s="20">
+        <f>A24</f>
+        <v>42741</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="47">
+        <f>A24+1</f>
+        <v>42742</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="41"/>
-      <c r="B30" s="18">
-        <v>6</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18" t="s">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A31" s="23">
-        <f>A25</f>
-        <v>42740</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="15">
         <v>3</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="39">
-        <f>A25+1</f>
-        <v>42741</v>
-      </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="42"/>
+      <c r="B32" s="15">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="40"/>
-      <c r="B33" s="18">
-        <v>2</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="40"/>
-      <c r="B34" s="18">
+    <row r="33" spans="1:12" ht="36" customHeight="1" thickBot="1">
+      <c r="A33" s="20">
+        <f>A29</f>
+        <v>42742</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="47">
+        <f>A29+1</f>
+        <v>42743</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="40"/>
-      <c r="B35" s="18">
-        <v>4</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="A35" s="42"/>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="40"/>
-      <c r="B36" s="18">
-        <v>5</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="15">
+        <v>3</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="41"/>
-      <c r="B37" s="18">
-        <v>6</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="15">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="10"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="8"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A38" s="23">
-        <f>A32</f>
-        <v>42741</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="20">
+        <f>A34</f>
+        <v>42743</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="15"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="A39" s="39">
-        <f>A32+1</f>
-        <v>42742</v>
-      </c>
-      <c r="B39" s="18">
-        <v>1</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="40"/>
-      <c r="B40" s="18">
-        <v>2</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="40"/>
-      <c r="B41" s="18">
-        <v>3</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="8"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="40"/>
-      <c r="B42" s="18">
+    <row r="85" spans="1:1">
+      <c r="A85" s="32"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="32"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="8"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="40"/>
-      <c r="B43" s="18">
-        <v>5</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="41"/>
-      <c r="B44" s="18">
-        <v>6</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A45" s="23">
-        <f>A39</f>
-        <v>42742</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="39">
-        <f>A39+1</f>
-        <v>42743</v>
-      </c>
-      <c r="B46" s="18">
-        <v>1</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="40"/>
-      <c r="B47" s="18">
-        <v>2</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="40"/>
-      <c r="B48" s="18">
-        <v>3</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="40"/>
-      <c r="B49" s="18">
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1">
         <v>4</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="8"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="40"/>
-      <c r="B50" s="18">
-        <v>5</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="8"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="41"/>
-      <c r="B51" s="18">
-        <v>6</v>
-      </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" ht="36" customHeight="1" thickBot="1">
-      <c r="A52" s="23">
-        <f>A46</f>
-        <v>42743</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="38"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="38">
-        <v>6</v>
+      <c r="A100" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C28:J28"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I16 I4:I9 I18:I23 I25:I30 I32:I37 I39:I44 I46:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I34:I37 I29:I32 I24:I27 I19:I22 I14:I17 I9:I12 I4:I7">
       <formula1>"√,×,'-"</formula1>
     </dataValidation>
   </dataValidations>
